--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi2</t>
   </si>
   <si>
     <t>Adam23</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.66328260687273</v>
+        <v>0.194617</v>
       </c>
       <c r="H2">
-        <v>9.66328260687273</v>
+        <v>0.583851</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01846423786691977</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01846423786691977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="N2">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="O2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="P2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="Q2">
-        <v>193.1593139025218</v>
+        <v>0.05238389018800001</v>
       </c>
       <c r="R2">
-        <v>193.1593139025218</v>
+        <v>0.471455011692</v>
       </c>
       <c r="S2">
-        <v>0.8919668892236542</v>
+        <v>0.0002010931220070546</v>
       </c>
       <c r="T2">
-        <v>0.8919668892236542</v>
+        <v>0.0002010931220070546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>9.66328260687273</v>
+        <v>0.194617</v>
       </c>
       <c r="H3">
-        <v>9.66328260687273</v>
+        <v>0.583851</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01846423786691977</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01846423786691977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="N3">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="O3">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="P3">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="Q3">
-        <v>1.474179382235333</v>
+        <v>3.907737383444334</v>
       </c>
       <c r="R3">
-        <v>1.474179382235333</v>
+        <v>35.169636450999</v>
       </c>
       <c r="S3">
-        <v>0.006807433569543921</v>
+        <v>0.01500115985277691</v>
       </c>
       <c r="T3">
-        <v>0.006807433569543921</v>
+        <v>0.0150011598527769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,867 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.194617</v>
+      </c>
+      <c r="H4">
+        <v>0.583851</v>
+      </c>
+      <c r="I4">
+        <v>0.01846423786691977</v>
+      </c>
+      <c r="J4">
+        <v>0.01846423786691977</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.174593</v>
+      </c>
+      <c r="N4">
+        <v>0.523779</v>
+      </c>
+      <c r="O4">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="P4">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="Q4">
+        <v>0.033978765881</v>
+      </c>
+      <c r="R4">
+        <v>0.305808892929</v>
+      </c>
+      <c r="S4">
+        <v>0.0001304388828022235</v>
+      </c>
+      <c r="T4">
+        <v>0.0001304388828022235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.194617</v>
+      </c>
+      <c r="H5">
+        <v>0.583851</v>
+      </c>
+      <c r="I5">
+        <v>0.01846423786691977</v>
+      </c>
+      <c r="J5">
+        <v>0.01846423786691977</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="N5">
+        <v>12.574763</v>
+      </c>
+      <c r="O5">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="P5">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="Q5">
+        <v>0.8157542169236666</v>
+      </c>
+      <c r="R5">
+        <v>7.341787952312999</v>
+      </c>
+      <c r="S5">
+        <v>0.003131546009333586</v>
+      </c>
+      <c r="T5">
+        <v>0.003131546009333585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>9.690151</v>
+      </c>
+      <c r="H6">
+        <v>29.070453</v>
+      </c>
+      <c r="I6">
+        <v>0.9193505861788563</v>
+      </c>
+      <c r="J6">
+        <v>0.9193505861788561</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.269164</v>
+      </c>
+      <c r="N6">
+        <v>0.8074920000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.01089095165781685</v>
+      </c>
+      <c r="P6">
+        <v>0.01089095165781686</v>
+      </c>
+      <c r="Q6">
+        <v>2.608239803764</v>
+      </c>
+      <c r="R6">
+        <v>23.474158233876</v>
+      </c>
+      <c r="S6">
+        <v>0.01001260279065951</v>
+      </c>
+      <c r="T6">
+        <v>0.01001260279065951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9.690151</v>
+      </c>
+      <c r="H7">
+        <v>29.070453</v>
+      </c>
+      <c r="I7">
+        <v>0.9193505861788563</v>
+      </c>
+      <c r="J7">
+        <v>0.9193505861788561</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.07911633333334</v>
+      </c>
+      <c r="N7">
+        <v>60.237349</v>
+      </c>
+      <c r="O7">
+        <v>0.8124440315867432</v>
+      </c>
+      <c r="P7">
+        <v>0.8124440315867433</v>
+      </c>
+      <c r="Q7">
+        <v>194.5696692165664</v>
+      </c>
+      <c r="R7">
+        <v>1751.127022949097</v>
+      </c>
+      <c r="S7">
+        <v>0.7469208966767856</v>
+      </c>
+      <c r="T7">
+        <v>0.7469208966767855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.690151</v>
+      </c>
+      <c r="H8">
+        <v>29.070453</v>
+      </c>
+      <c r="I8">
+        <v>0.9193505861788563</v>
+      </c>
+      <c r="J8">
+        <v>0.9193505861788561</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.174593</v>
+      </c>
+      <c r="N8">
+        <v>0.523779</v>
+      </c>
+      <c r="O8">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="P8">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="Q8">
+        <v>1.691832533543</v>
+      </c>
+      <c r="R8">
+        <v>15.226492801887</v>
+      </c>
+      <c r="S8">
+        <v>0.00649466629649439</v>
+      </c>
+      <c r="T8">
+        <v>0.006494666296494389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9.66328260687273</v>
-      </c>
-      <c r="H4">
-        <v>9.66328260687273</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="N4">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="O4">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="P4">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="Q4">
-        <v>21.92086118308959</v>
-      </c>
-      <c r="R4">
-        <v>21.92086118308959</v>
-      </c>
-      <c r="S4">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="T4">
-        <v>0.1012256772068018</v>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.690151</v>
+      </c>
+      <c r="H9">
+        <v>29.070453</v>
+      </c>
+      <c r="I9">
+        <v>0.9193505861788563</v>
+      </c>
+      <c r="J9">
+        <v>0.9193505861788561</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="N9">
+        <v>12.574763</v>
+      </c>
+      <c r="O9">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="P9">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="Q9">
+        <v>40.61711741973766</v>
+      </c>
+      <c r="R9">
+        <v>365.554056777639</v>
+      </c>
+      <c r="S9">
+        <v>0.1559224204149167</v>
+      </c>
+      <c r="T9">
+        <v>0.1559224204149167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.007703000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.023109</v>
+      </c>
+      <c r="I10">
+        <v>0.0007308201456649882</v>
+      </c>
+      <c r="J10">
+        <v>0.000730820145664988</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.269164</v>
+      </c>
+      <c r="N10">
+        <v>0.8074920000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.01089095165781685</v>
+      </c>
+      <c r="P10">
+        <v>0.01089095165781686</v>
+      </c>
+      <c r="Q10">
+        <v>0.002073370292</v>
+      </c>
+      <c r="R10">
+        <v>0.018660332628</v>
+      </c>
+      <c r="S10">
+        <v>7.959326876996058E-06</v>
+      </c>
+      <c r="T10">
+        <v>7.959326876996056E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.007703000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.023109</v>
+      </c>
+      <c r="I11">
+        <v>0.0007308201456649882</v>
+      </c>
+      <c r="J11">
+        <v>0.000730820145664988</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.07911633333334</v>
+      </c>
+      <c r="N11">
+        <v>60.237349</v>
+      </c>
+      <c r="O11">
+        <v>0.8124440315867432</v>
+      </c>
+      <c r="P11">
+        <v>0.8124440315867433</v>
+      </c>
+      <c r="Q11">
+        <v>0.1546694331156667</v>
+      </c>
+      <c r="R11">
+        <v>1.392024898041</v>
+      </c>
+      <c r="S11">
+        <v>0.0005937504655088739</v>
+      </c>
+      <c r="T11">
+        <v>0.0005937504655088738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007703000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.023109</v>
+      </c>
+      <c r="I12">
+        <v>0.0007308201456649882</v>
+      </c>
+      <c r="J12">
+        <v>0.000730820145664988</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.174593</v>
+      </c>
+      <c r="N12">
+        <v>0.523779</v>
+      </c>
+      <c r="O12">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="P12">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="Q12">
+        <v>0.001344889879</v>
+      </c>
+      <c r="R12">
+        <v>0.012104008911</v>
+      </c>
+      <c r="S12">
+        <v>5.162810618936309E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.162810618936308E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007703000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.023109</v>
+      </c>
+      <c r="I13">
+        <v>0.0007308201456649882</v>
+      </c>
+      <c r="J13">
+        <v>0.000730820145664988</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="N13">
+        <v>12.574763</v>
+      </c>
+      <c r="O13">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="P13">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="Q13">
+        <v>0.03228779979633333</v>
+      </c>
+      <c r="R13">
+        <v>0.290590198167</v>
+      </c>
+      <c r="S13">
+        <v>0.0001239475426601818</v>
+      </c>
+      <c r="T13">
+        <v>0.0001239475426601818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.647742</v>
+      </c>
+      <c r="H14">
+        <v>1.943226</v>
+      </c>
+      <c r="I14">
+        <v>0.0614543558085591</v>
+      </c>
+      <c r="J14">
+        <v>0.06145435580855909</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.269164</v>
+      </c>
+      <c r="N14">
+        <v>0.8074920000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.01089095165781685</v>
+      </c>
+      <c r="P14">
+        <v>0.01089095165781686</v>
+      </c>
+      <c r="Q14">
+        <v>0.174348827688</v>
+      </c>
+      <c r="R14">
+        <v>1.569139449192</v>
+      </c>
+      <c r="S14">
+        <v>0.0006692964182732936</v>
+      </c>
+      <c r="T14">
+        <v>0.0006692964182732936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.647742</v>
+      </c>
+      <c r="H15">
+        <v>1.943226</v>
+      </c>
+      <c r="I15">
+        <v>0.0614543558085591</v>
+      </c>
+      <c r="J15">
+        <v>0.06145435580855909</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>20.07911633333334</v>
+      </c>
+      <c r="N15">
+        <v>60.237349</v>
+      </c>
+      <c r="O15">
+        <v>0.8124440315867432</v>
+      </c>
+      <c r="P15">
+        <v>0.8124440315867433</v>
+      </c>
+      <c r="Q15">
+        <v>13.006086971986</v>
+      </c>
+      <c r="R15">
+        <v>117.054782747874</v>
+      </c>
+      <c r="S15">
+        <v>0.04992822459167195</v>
+      </c>
+      <c r="T15">
+        <v>0.04992822459167194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.647742</v>
+      </c>
+      <c r="H16">
+        <v>1.943226</v>
+      </c>
+      <c r="I16">
+        <v>0.0614543558085591</v>
+      </c>
+      <c r="J16">
+        <v>0.06145435580855909</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.174593</v>
+      </c>
+      <c r="N16">
+        <v>0.523779</v>
+      </c>
+      <c r="O16">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="P16">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="Q16">
+        <v>0.113091219006</v>
+      </c>
+      <c r="R16">
+        <v>1.017820971054</v>
+      </c>
+      <c r="S16">
+        <v>0.0004341385532819736</v>
+      </c>
+      <c r="T16">
+        <v>0.0004341385532819736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.647742</v>
+      </c>
+      <c r="H17">
+        <v>1.943226</v>
+      </c>
+      <c r="I17">
+        <v>0.0614543558085591</v>
+      </c>
+      <c r="J17">
+        <v>0.06145435580855909</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="N17">
+        <v>12.574763</v>
+      </c>
+      <c r="O17">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="P17">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="Q17">
+        <v>2.715067378382</v>
+      </c>
+      <c r="R17">
+        <v>24.435606405438</v>
+      </c>
+      <c r="S17">
+        <v>0.01042269624533188</v>
+      </c>
+      <c r="T17">
+        <v>0.01042269624533189</v>
       </c>
     </row>
   </sheetData>
